--- a/datasetsMA/V14_phli01_Stickstofflimitierung mit Produktbildung - GESAMT.xlsx
+++ b/datasetsMA/V14_phli01_Stickstofflimitierung mit Produktbildung - GESAMT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\groups\Projekte\15_UpRePP2\06-Students\05_MaximilianMaschmeier\05_Simulations\pyFOOMB\pyfoomb\Stickstofflimitierung mit Produktbildung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafif/Documents/Bachelor Thesis Stuff/bachelorsthesis/datasetsMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BDAF01-457E-4072-B273-5858C63FC50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751C1771-932A-AE4F-BAA3-4533C1949018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6454F151-A5DE-4DFC-9069-26FE7DC3D3FB}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19260" xr2:uid="{6454F151-A5DE-4DFC-9069-26FE7DC3D3FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>time [h]</t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>Xa</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>FG</t>
+  </si>
+  <si>
+    <t>Xi</t>
   </si>
 </sst>
 </file>
@@ -228,21 +240,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -250,50 +258,44 @@
     <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1785,9 +1787,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1825,7 +1827,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1931,7 +1933,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2073,7 +2075,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2081,21 +2083,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B3E3C2-FEFF-441E-A337-F51B2570ED3F}">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2111,15 +2113,14 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4"/>
       <c r="L1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2160,11 +2161,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>1.85</v>
       </c>
       <c r="C3">
@@ -2176,7 +2177,7 @@
       <c r="E3">
         <v>4.4261098576169916E-2</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>61.956666666666699</v>
       </c>
       <c r="G3">
@@ -2197,11 +2198,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="6">
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2.116666666581299</v>
       </c>
@@ -2217,7 +2218,7 @@
       <c r="E4">
         <v>4.3192727231227884E-2</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>56.941666666666663</v>
       </c>
       <c r="G4">
@@ -2238,11 +2239,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="6">
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4.0833333331975155</v>
       </c>
@@ -2258,7 +2259,7 @@
       <c r="E5">
         <v>3.9987613196401782E-2</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>48.125</v>
       </c>
       <c r="G5">
@@ -2279,11 +2280,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="6">
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6.2666666666627862</v>
       </c>
@@ -2299,7 +2300,7 @@
       <c r="E6">
         <v>3.7927182745442156E-2</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>28.833333333333332</v>
       </c>
       <c r="G6">
@@ -2320,11 +2321,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="6">
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>8.0999999998603016</v>
       </c>
@@ -2340,7 +2341,7 @@
       <c r="E7">
         <v>3.166957915363882E-2</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>9.25</v>
       </c>
       <c r="G7">
@@ -2361,11 +2362,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="6">
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10.083333333197515</v>
       </c>
@@ -2381,7 +2382,7 @@
       <c r="E8">
         <v>2.1443739137765084E-2</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="15">
         <v>0</v>
       </c>
       <c r="G8" s="2">
@@ -2402,15 +2403,15 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="6">
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>12.116666666523088</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="3">
         <v>8.5500000000000007</v>
       </c>
       <c r="C9">
@@ -2422,7 +2423,7 @@
       <c r="E9">
         <v>3.2661638259656421E-3</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="15">
         <v>0</v>
       </c>
       <c r="G9" s="2">
@@ -2443,673 +2444,1208 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="6">
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
         <v>12.57855095812214</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <f>O35</f>
         <v>9.0808794554898853</v>
       </c>
       <c r="C10" s="2">
         <v>0.19999999999997797</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <v>0</v>
       </c>
       <c r="E10" s="2">
         <f>0.01</f>
         <v>0.01</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="25">
         <v>0</v>
       </c>
       <c r="G10" s="2">
         <v>1E-3</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32">
-        <v>0</v>
-      </c>
-      <c r="M10" s="33">
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26">
+        <v>0</v>
+      </c>
+      <c r="M10" s="27">
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="22">
         <v>14.133333333302289</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="23">
         <v>9.0808794554898853</v>
       </c>
       <c r="C11" s="2">
         <v>0.52076550679563072</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="22">
         <v>0</v>
       </c>
       <c r="E11" s="2">
         <v>1E-3</v>
       </c>
-      <c r="F11" s="30">
-        <v>0</v>
-      </c>
-      <c r="G11" s="28">
+      <c r="F11" s="24">
+        <v>0</v>
+      </c>
+      <c r="G11" s="22">
         <v>1E-3</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="22">
         <v>60.415000000000006</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="22">
         <v>5.6435510869083189E-2</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="22">
         <v>3.1357872111767691</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="22">
         <v>0.17982947843718866</v>
       </c>
-      <c r="L11" s="28"/>
-      <c r="M11" s="34"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
+      <c r="L11" s="22"/>
+      <c r="M11" s="28"/>
+      <c r="R11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T11" t="s">
+        <v>6</v>
+      </c>
+      <c r="U11" t="s">
+        <v>18</v>
+      </c>
+      <c r="W11" t="s">
+        <v>1</v>
+      </c>
+      <c r="X11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="22">
         <v>16.083333333197515</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="23">
         <v>9.0808794554898853</v>
       </c>
       <c r="C12" s="2">
         <v>0.4558938497950043</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="22">
         <v>0</v>
       </c>
       <c r="E12" s="2">
         <v>1E-3</v>
       </c>
-      <c r="F12" s="30">
-        <v>0</v>
-      </c>
-      <c r="G12" s="28">
+      <c r="F12" s="24">
+        <v>0</v>
+      </c>
+      <c r="G12" s="22">
         <v>1E-3</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="22">
         <v>54.108333333333334</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="22">
         <v>0.21437752542928015</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="22">
         <v>5.9024538778434632</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="22">
         <v>0.29632508996479606</v>
       </c>
-      <c r="L12" s="28"/>
-      <c r="M12" s="34"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+      <c r="L12" s="22"/>
+      <c r="M12" s="28"/>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12" s="5">
+        <v>1.85</v>
+      </c>
+      <c r="T12">
+        <v>0.76215505913272008</v>
+      </c>
+      <c r="U12" s="4">
+        <v>61.956666666666699</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>12.303333333333335</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="22">
         <v>19.083333333197515</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="23">
         <v>9.0808794554898853</v>
       </c>
       <c r="C13" s="2">
         <v>0.96912623485632998</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="22">
         <v>0</v>
       </c>
       <c r="E13" s="2">
         <v>1E-3</v>
       </c>
-      <c r="F13" s="30">
-        <v>0</v>
-      </c>
-      <c r="G13" s="28">
+      <c r="F13" s="24">
+        <v>0</v>
+      </c>
+      <c r="G13" s="22">
         <v>1E-3</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="22">
         <v>49.075000000000003</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="22">
         <v>0.32562080581440439</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="22">
         <v>9.8691205445100607</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="22">
         <v>1.0532486067593458</v>
       </c>
-      <c r="L13" s="28"/>
-      <c r="M13" s="34"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
+      <c r="L13" s="22"/>
+      <c r="M13" s="28"/>
+      <c r="R13">
+        <v>2.116666666581299</v>
+      </c>
+      <c r="S13" s="3">
+        <v>1.866666666666646</v>
+      </c>
+      <c r="T13">
+        <v>0.74375821287779231</v>
+      </c>
+      <c r="U13" s="4">
+        <v>56.941666666666663</v>
+      </c>
+      <c r="W13">
+        <v>2.116666666581299</v>
+      </c>
+      <c r="X13">
+        <v>16.473333333333336</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="22">
         <v>20.416666666511446</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="23">
         <v>9.0808794554898853</v>
       </c>
       <c r="C14" s="2">
         <v>0.20046531115670302</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="22">
         <v>0</v>
       </c>
       <c r="E14" s="2">
         <v>1E-3</v>
       </c>
-      <c r="F14" s="30">
-        <v>0</v>
-      </c>
-      <c r="G14" s="28">
+      <c r="F14" s="24">
+        <v>0</v>
+      </c>
+      <c r="G14" s="22">
         <v>1E-3</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="22">
         <v>44.514219999999995</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="22">
         <v>0.58065618300056787</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="22">
         <v>8.0191205445101197</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="22">
         <v>0.17702641060679158</v>
       </c>
-      <c r="L14" s="28"/>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
+      <c r="L14" s="22"/>
+      <c r="M14" s="28"/>
+      <c r="R14">
+        <v>4.0833333331975155</v>
+      </c>
+      <c r="S14" s="3">
+        <v>1.9166666666666405</v>
+      </c>
+      <c r="T14">
+        <v>0.68856767411300912</v>
+      </c>
+      <c r="U14" s="4">
+        <v>48.125</v>
+      </c>
+      <c r="W14">
+        <v>4.0833333331975155</v>
+      </c>
+      <c r="X14">
+        <v>24.675000000000001</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="22">
         <v>22.083333333197515</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="23">
         <v>9.0808794554898906</v>
       </c>
       <c r="C15" s="2">
         <v>0.1424905145774312</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="22">
         <v>0</v>
       </c>
       <c r="E15" s="2">
         <v>1E-3</v>
       </c>
-      <c r="F15" s="30">
-        <v>0</v>
-      </c>
-      <c r="G15" s="28">
+      <c r="F15" s="24">
+        <v>0</v>
+      </c>
+      <c r="G15" s="22">
         <v>1E-3</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="22">
         <v>37.489400000000003</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="22">
         <v>0.3679699721334177</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="22">
         <v>12.135787211176773</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="22">
         <v>0.19042589134661078</v>
       </c>
-      <c r="L15" s="28">
+      <c r="L15" s="22">
         <v>3.3993799999999994</v>
       </c>
-      <c r="M15" s="28">
+      <c r="M15" s="22">
         <v>4.3612397320028286E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="28">
+      <c r="R15">
+        <v>6.2666666666627862</v>
+      </c>
+      <c r="S15" s="3">
+        <v>2.6166666666666747</v>
+      </c>
+      <c r="T15">
+        <v>0.65308804204993431</v>
+      </c>
+      <c r="U15" s="4">
+        <v>28.833333333333332</v>
+      </c>
+      <c r="W15">
+        <v>6.2666666666627862</v>
+      </c>
+      <c r="X15">
+        <v>41.156666666666666</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="22">
         <v>24.083333333255723</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="23">
         <v>9.0808794554898906</v>
       </c>
       <c r="C16" s="2">
         <v>0.14768248443551182</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="22">
         <v>0</v>
       </c>
       <c r="E16" s="2">
         <v>1E-3</v>
       </c>
-      <c r="F16" s="30">
-        <v>0</v>
-      </c>
-      <c r="G16" s="28">
+      <c r="F16" s="24">
+        <v>0</v>
+      </c>
+      <c r="G16" s="22">
         <v>1E-3</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="22">
         <v>31.06202</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="22">
         <v>0.41964969410627972</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="22">
         <v>10.119120544510066</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="22">
         <v>0.16456741548443529</v>
       </c>
-      <c r="L16" s="28">
+      <c r="L16" s="22">
         <v>4.7225866666666665</v>
       </c>
-      <c r="M16" s="28">
+      <c r="M16" s="22">
         <v>4.7494017868920317E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
+      <c r="R16">
+        <v>8.0999999998603016</v>
+      </c>
+      <c r="S16" s="3">
+        <v>3.9333333333333074</v>
+      </c>
+      <c r="T16">
+        <v>0.54533508541392905</v>
+      </c>
+      <c r="U16" s="4">
+        <v>9.25</v>
+      </c>
+      <c r="W16">
+        <v>8.0999999998603016</v>
+      </c>
+      <c r="X16">
+        <v>59.951666666666668</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" s="22">
         <v>26.083333333313931</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="23">
         <v>9.0808794554898906</v>
       </c>
       <c r="C17" s="2">
         <v>0.19468123664064665</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="22">
         <v>0</v>
       </c>
       <c r="E17" s="2">
         <v>1E-3</v>
       </c>
-      <c r="F17" s="30">
-        <v>0</v>
-      </c>
-      <c r="G17" s="28">
+      <c r="F17" s="24">
+        <v>0</v>
+      </c>
+      <c r="G17" s="22">
         <v>1E-3</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="22">
         <v>24.719876666666664</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="22">
         <v>8.3310204900526819E-2</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="22">
         <v>11.952453877843423</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="22">
         <v>0.25624373864164696</v>
       </c>
-      <c r="L17" s="28">
+      <c r="L17" s="22">
         <v>6.7493466666666668</v>
       </c>
-      <c r="M17" s="28">
+      <c r="M17" s="22">
         <v>8.9142486690316575E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
+      <c r="R17">
+        <v>10.083333333197515</v>
+      </c>
+      <c r="S17" s="3">
+        <v>5.2166666666666472</v>
+      </c>
+      <c r="T17">
+        <v>0.36925098554533514</v>
+      </c>
+      <c r="U17" s="15">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>10.083333333197515</v>
+      </c>
+      <c r="X17">
+        <v>70.034999999999997</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" s="22">
         <v>29.083333333313931</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="23">
         <v>9.0808794554898906</v>
       </c>
       <c r="C18" s="2">
         <v>0.14423551624494799</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="22">
         <v>0</v>
       </c>
       <c r="E18" s="2">
         <v>1E-3</v>
       </c>
-      <c r="F18" s="30">
-        <v>0</v>
-      </c>
-      <c r="G18" s="28">
+      <c r="F18" s="24">
+        <v>0</v>
+      </c>
+      <c r="G18" s="22">
         <v>1E-3</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="22">
         <v>15.84416666666667</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="22">
         <v>0.28004132375626928</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="22">
         <v>13.252453877843424</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="22">
         <v>0.21049442798489301</v>
       </c>
-      <c r="L18" s="28">
+      <c r="L18" s="22">
         <v>9.1260366666666659</v>
       </c>
-      <c r="M18" s="28">
+      <c r="M18" s="22">
         <v>2.1826461768535442E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
+      <c r="R18">
+        <v>12.116666666523088</v>
+      </c>
+      <c r="S18" s="3">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="T18">
+        <v>5.624178712220762E-2</v>
+      </c>
+      <c r="U18" s="15">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>12.116666666523088</v>
+      </c>
+      <c r="X18">
+        <v>66.368333333333339</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" s="22">
         <v>32.083333333313931</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="23">
         <v>9.0808794554898906</v>
       </c>
       <c r="C19" s="2">
         <v>8.3581538722530949E-2</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="22">
         <v>0</v>
       </c>
       <c r="E19" s="2">
         <v>1E-3</v>
       </c>
-      <c r="F19" s="30">
-        <v>0</v>
-      </c>
-      <c r="G19" s="28">
+      <c r="F19" s="24">
+        <v>0</v>
+      </c>
+      <c r="G19" s="22">
         <v>1E-3</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="22">
         <v>8.5309733333333337</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="22">
         <v>4.7402690794994512E-2</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="22">
         <v>13.535787211176801</v>
       </c>
-      <c r="K19" s="28">
+      <c r="K19" s="22">
         <v>0.12458506122410377</v>
       </c>
-      <c r="L19" s="28">
+      <c r="L19" s="22">
         <v>12.640066666666668</v>
       </c>
-      <c r="M19" s="28">
+      <c r="M19" s="22">
         <v>0.21759883210470923</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="28">
+      <c r="R19" s="7">
+        <v>12.57855095812214</v>
+      </c>
+      <c r="S19" s="8">
+        <v>9.0808794554898853</v>
+      </c>
+      <c r="T19" s="7">
+        <v>0</v>
+      </c>
+      <c r="U19" s="25">
+        <v>0</v>
+      </c>
+      <c r="W19" s="22">
+        <v>14.133333333302289</v>
+      </c>
+      <c r="X19" s="22">
+        <v>60.415000000000006</v>
+      </c>
+      <c r="Y19" s="22">
+        <v>3.1357872111767691</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" s="22">
         <v>35.083333333313931</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="23">
         <v>9.0808794554898906</v>
       </c>
       <c r="C20" s="2">
         <v>0.1751159804993066</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="22">
         <v>0</v>
       </c>
       <c r="E20" s="2">
         <v>1E-3</v>
       </c>
-      <c r="F20" s="30">
-        <v>0</v>
-      </c>
-      <c r="G20" s="28">
+      <c r="F20" s="24">
+        <v>0</v>
+      </c>
+      <c r="G20" s="22">
         <v>1E-3</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="22">
         <v>1.7425866666666667</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="22">
         <v>1.9877475527172301E-2</v>
       </c>
-      <c r="J20" s="28">
+      <c r="J20" s="22">
         <v>14.302453877843421</v>
       </c>
-      <c r="K20" s="28">
+      <c r="K20" s="22">
         <v>0.27580899478304399</v>
       </c>
-      <c r="L20" s="28">
+      <c r="L20" s="22">
         <v>16.867763333333333</v>
       </c>
-      <c r="M20" s="28">
+      <c r="M20" s="22">
         <v>8.0756176440772612E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
+      <c r="R20" s="22">
+        <v>14.133333333302289</v>
+      </c>
+      <c r="S20" s="23">
+        <v>9.0808794554898853</v>
+      </c>
+      <c r="T20" s="22">
+        <v>0</v>
+      </c>
+      <c r="U20" s="24">
+        <v>0</v>
+      </c>
+      <c r="W20" s="22">
+        <v>16.083333333197515</v>
+      </c>
+      <c r="X20" s="22">
+        <v>54.108333333333334</v>
+      </c>
+      <c r="Y20" s="22">
+        <v>5.9024538778434632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" s="22">
         <v>38.083333333313931</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="23">
         <v>9.0808794554898906</v>
       </c>
       <c r="C21" s="2">
         <v>7.7644437348523082E-2</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="22">
         <v>0</v>
       </c>
       <c r="E21" s="2">
         <v>1E-3</v>
       </c>
-      <c r="F21" s="30">
-        <v>0</v>
-      </c>
-      <c r="G21" s="28">
+      <c r="F21" s="24">
+        <v>0</v>
+      </c>
+      <c r="G21" s="22">
         <v>1E-3</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="22">
         <v>0</v>
       </c>
       <c r="I21" s="2">
         <v>0.1</v>
       </c>
-      <c r="J21" s="28">
+      <c r="J21" s="22">
         <v>14.552453877843503</v>
       </c>
-      <c r="K21" s="28">
+      <c r="K21" s="22">
         <v>0.1244281568678236</v>
       </c>
-      <c r="L21" s="28">
+      <c r="L21" s="22">
         <v>19.747046666666666</v>
       </c>
-      <c r="M21" s="28">
+      <c r="M21" s="22">
         <v>0.21785772016004634</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="28">
+      <c r="R21" s="22">
+        <v>16.083333333197515</v>
+      </c>
+      <c r="S21" s="23">
+        <v>9.0808794554898853</v>
+      </c>
+      <c r="T21" s="22">
+        <v>0</v>
+      </c>
+      <c r="U21" s="24">
+        <v>0</v>
+      </c>
+      <c r="W21" s="22">
+        <v>19.083333333197515</v>
+      </c>
+      <c r="X21" s="22">
+        <v>49.075000000000003</v>
+      </c>
+      <c r="Y21" s="22">
+        <v>9.8691205445100607</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" s="22">
         <v>39.833333333255723</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="23">
         <v>9.0808794554898906</v>
       </c>
       <c r="C22" s="2">
         <v>7.3723348287322799E-2</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="22">
         <v>0</v>
       </c>
       <c r="E22" s="2">
         <v>1E-3</v>
       </c>
-      <c r="F22" s="30">
-        <v>0</v>
-      </c>
-      <c r="G22" s="28">
+      <c r="F22" s="24">
+        <v>0</v>
+      </c>
+      <c r="G22" s="22">
         <v>1E-3</v>
       </c>
-      <c r="H22" s="28">
+      <c r="H22" s="22">
         <v>0</v>
       </c>
       <c r="I22" s="2">
         <v>0.1</v>
       </c>
-      <c r="J22" s="28">
+      <c r="J22" s="22">
         <v>14.235787211176767</v>
       </c>
-      <c r="K22" s="28">
+      <c r="K22" s="22">
         <v>0.11557359657266619</v>
       </c>
-      <c r="L22" s="28">
+      <c r="L22" s="22">
         <v>20.563186666666667</v>
       </c>
-      <c r="M22" s="28">
+      <c r="M22" s="22">
         <v>0.2384917890270726</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K25" s="4"/>
-      <c r="L25" s="11" t="s">
+      <c r="R22" s="22">
+        <v>19.083333333197515</v>
+      </c>
+      <c r="S22" s="23">
+        <v>9.0808794554898853</v>
+      </c>
+      <c r="T22" s="22">
+        <v>0</v>
+      </c>
+      <c r="U22" s="24">
+        <v>0</v>
+      </c>
+      <c r="W22" s="22">
+        <v>20.416666666511446</v>
+      </c>
+      <c r="X22" s="22">
+        <v>44.514219999999995</v>
+      </c>
+      <c r="Y22" s="22">
+        <v>8.0191205445101197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="R23" s="22">
+        <v>20.416666666511446</v>
+      </c>
+      <c r="S23" s="23">
+        <v>9.0808794554898853</v>
+      </c>
+      <c r="T23" s="22">
+        <v>0</v>
+      </c>
+      <c r="U23" s="24">
+        <v>0</v>
+      </c>
+      <c r="W23" s="22">
+        <v>22.083333333197515</v>
+      </c>
+      <c r="X23" s="22">
+        <v>37.489400000000003</v>
+      </c>
+      <c r="Y23" s="22">
+        <v>12.135787211176773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="R24" s="22">
+        <v>22.083333333197515</v>
+      </c>
+      <c r="S24" s="23">
+        <v>9.0808794554898906</v>
+      </c>
+      <c r="T24" s="22">
+        <v>0</v>
+      </c>
+      <c r="U24" s="24">
+        <v>0</v>
+      </c>
+      <c r="W24" s="22">
+        <v>24.083333333255723</v>
+      </c>
+      <c r="X24" s="22">
+        <v>31.06202</v>
+      </c>
+      <c r="Y24" s="22">
+        <v>10.119120544510066</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="L25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M25" s="12"/>
-      <c r="N25" s="13" t="s">
+      <c r="M25" s="10"/>
+      <c r="N25" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O25" s="14" t="s">
+      <c r="O25" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P25" s="15"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K26" s="4"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="18">
+      <c r="P25" s="13"/>
+      <c r="R25" s="22">
+        <v>24.083333333255723</v>
+      </c>
+      <c r="S25" s="23">
+        <v>9.0808794554898906</v>
+      </c>
+      <c r="T25" s="22">
+        <v>0</v>
+      </c>
+      <c r="U25" s="24">
+        <v>0</v>
+      </c>
+      <c r="W25" s="22">
+        <v>26.083333333313931</v>
+      </c>
+      <c r="X25" s="22">
+        <v>24.719876666666664</v>
+      </c>
+      <c r="Y25" s="22">
+        <v>11.952453877843423</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="L26" s="14"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="15">
         <f>(D9-D7)/(A9-A7)</f>
         <v>-0.12176596637979932</v>
       </c>
-      <c r="O26" s="19">
+      <c r="O26">
         <f>D7-N26*A7</f>
         <v>1.5316394130732931</v>
       </c>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="5"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F27" s="5"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="5"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P26" s="16"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="22">
+        <v>26.083333333313931</v>
+      </c>
+      <c r="S26" s="23">
+        <v>9.0808794554898906</v>
+      </c>
+      <c r="T26" s="22">
+        <v>0</v>
+      </c>
+      <c r="U26" s="24">
+        <v>0</v>
+      </c>
+      <c r="W26" s="22">
+        <v>29.083333333313931</v>
+      </c>
+      <c r="X26" s="22">
+        <v>15.84416666666667</v>
+      </c>
+      <c r="Y26" s="22">
+        <v>13.252453877843424</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="F27" s="4"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="15"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="22">
+        <v>29.083333333313931</v>
+      </c>
+      <c r="S27" s="23">
+        <v>9.0808794554898906</v>
+      </c>
+      <c r="T27" s="22">
+        <v>0</v>
+      </c>
+      <c r="U27" s="24">
+        <v>0</v>
+      </c>
+      <c r="W27" s="22">
+        <v>32.083333333313931</v>
+      </c>
+      <c r="X27" s="22">
+        <v>8.5309733333333337</v>
+      </c>
+      <c r="Y27" s="22">
+        <v>13.535787211176801</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="18" t="s">
+      <c r="L28" s="14"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O28" s="19"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="5"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K29" s="4"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="26" t="s">
+      <c r="P28" s="16"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="22">
+        <v>32.083333333313931</v>
+      </c>
+      <c r="S28" s="23">
+        <v>9.0808794554898906</v>
+      </c>
+      <c r="T28" s="22">
+        <v>0</v>
+      </c>
+      <c r="U28" s="24">
+        <v>0</v>
+      </c>
+      <c r="W28" s="22">
+        <v>35.083333333313931</v>
+      </c>
+      <c r="X28" s="22">
+        <v>1.7425866666666667</v>
+      </c>
+      <c r="Y28" s="22">
+        <v>14.302453877843421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="L29" s="17"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O29" s="23">
+      <c r="O29" s="19">
         <f>-O26/N26</f>
         <v>12.57855095812214</v>
       </c>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="5"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K30" s="4"/>
-      <c r="Q30" s="5"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K31" s="4"/>
-      <c r="L31" s="11" t="s">
+      <c r="P29" s="21"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="22">
+        <v>35.083333333313931</v>
+      </c>
+      <c r="S29" s="23">
+        <v>9.0808794554898906</v>
+      </c>
+      <c r="T29" s="22">
+        <v>0</v>
+      </c>
+      <c r="U29" s="24">
+        <v>0</v>
+      </c>
+      <c r="W29" s="22">
+        <v>38.083333333313931</v>
+      </c>
+      <c r="X29" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="22">
+        <v>14.552453877843503</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q30" s="4"/>
+      <c r="R30" s="22">
+        <v>38.083333333313931</v>
+      </c>
+      <c r="S30" s="23">
+        <v>9.0808794554898906</v>
+      </c>
+      <c r="T30" s="22">
+        <v>0</v>
+      </c>
+      <c r="U30" s="24">
+        <v>0</v>
+      </c>
+      <c r="W30" s="22">
+        <v>39.833333333255723</v>
+      </c>
+      <c r="X30" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="22">
+        <v>14.235787211176767</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="L31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M31" s="12"/>
-      <c r="N31" s="13" t="s">
+      <c r="M31" s="10"/>
+      <c r="N31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O31" s="14" t="s">
+      <c r="O31" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="5"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K32" s="4"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="18">
+      <c r="P31" s="13"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="22">
+        <v>39.833333333255723</v>
+      </c>
+      <c r="S31" s="23">
+        <v>9.0808794554898906</v>
+      </c>
+      <c r="T31" s="22">
+        <v>0</v>
+      </c>
+      <c r="U31" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="L32" s="14"/>
+      <c r="N32" s="15">
         <f>(B9-B7)/(A9-A7)</f>
         <v>1.1493775933621131</v>
       </c>
-      <c r="O32" s="19">
+      <c r="O32">
         <f>B7-A7*N32</f>
         <v>-5.3766251727392422</v>
       </c>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="5"/>
-    </row>
-    <row r="33" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K33" s="4"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="5"/>
-    </row>
-    <row r="34" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K34" s="4"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="18" t="s">
+      <c r="P32" s="16"/>
+      <c r="Q32" s="4"/>
+    </row>
+    <row r="33" spans="12:26" x14ac:dyDescent="0.2">
+      <c r="L33" s="14"/>
+      <c r="N33" s="15"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="4"/>
+    </row>
+    <row r="34" spans="12:26" x14ac:dyDescent="0.2">
+      <c r="L34" s="14"/>
+      <c r="N34" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="O34" s="19"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="5"/>
-    </row>
-    <row r="35" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K35" s="4"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="23" t="s">
+      <c r="P34" s="16"/>
+      <c r="Q34" s="4"/>
+      <c r="T34" t="s">
+        <v>1</v>
+      </c>
+      <c r="U34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="12:26" x14ac:dyDescent="0.2">
+      <c r="L35" s="17"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O35" s="23">
+      <c r="O35" s="19">
         <f>N32*O29+O32</f>
         <v>9.0808794554898853</v>
       </c>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="5"/>
-    </row>
-    <row r="36" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K36" s="4"/>
-      <c r="Q36" s="5"/>
-    </row>
-    <row r="37" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K37" s="4"/>
-      <c r="Q37" s="5"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="4"/>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="12:26" x14ac:dyDescent="0.2">
+      <c r="Q36" s="4"/>
+      <c r="T36">
+        <v>2.116666666581299</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="12:26" x14ac:dyDescent="0.2">
+      <c r="Q37" s="4"/>
+      <c r="T37">
+        <v>4.0833333331975155</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="W37" s="29"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="30"/>
+    </row>
+    <row r="38" spans="12:26" x14ac:dyDescent="0.2">
+      <c r="T38">
+        <v>6.2666666666627862</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+    </row>
+    <row r="39" spans="12:26" x14ac:dyDescent="0.2">
+      <c r="T39">
+        <v>8.0999999998603016</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="12:26" x14ac:dyDescent="0.2">
+      <c r="T40">
+        <v>10.083333333197515</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="12:26" x14ac:dyDescent="0.2">
+      <c r="T41">
+        <v>12.116666666523088</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="12:26" x14ac:dyDescent="0.2">
+      <c r="T42" s="22">
+        <v>22.083333333197515</v>
+      </c>
+      <c r="U42" s="22">
+        <v>3.3993799999999994</v>
+      </c>
+    </row>
+    <row r="43" spans="12:26" x14ac:dyDescent="0.2">
+      <c r="T43" s="22">
+        <v>24.083333333255723</v>
+      </c>
+      <c r="U43" s="22">
+        <v>4.7225866666666665</v>
+      </c>
+    </row>
+    <row r="44" spans="12:26" x14ac:dyDescent="0.2">
+      <c r="T44" s="22">
+        <v>26.083333333313931</v>
+      </c>
+      <c r="U44" s="22">
+        <v>6.7493466666666668</v>
+      </c>
+    </row>
+    <row r="45" spans="12:26" x14ac:dyDescent="0.2">
+      <c r="T45" s="22">
+        <v>29.083333333313931</v>
+      </c>
+      <c r="U45" s="22">
+        <v>9.1260366666666659</v>
+      </c>
+    </row>
+    <row r="46" spans="12:26" x14ac:dyDescent="0.2">
+      <c r="T46" s="22">
+        <v>32.083333333313931</v>
+      </c>
+      <c r="U46" s="22">
+        <v>12.640066666666668</v>
+      </c>
+    </row>
+    <row r="47" spans="12:26" x14ac:dyDescent="0.2">
+      <c r="T47" s="22">
+        <v>35.083333333313931</v>
+      </c>
+      <c r="U47" s="22">
+        <v>16.867763333333333</v>
+      </c>
+    </row>
+    <row r="48" spans="12:26" x14ac:dyDescent="0.2">
+      <c r="T48" s="22">
+        <v>38.083333333313931</v>
+      </c>
+      <c r="U48" s="22">
+        <v>19.747046666666666</v>
+      </c>
+    </row>
+    <row r="49" spans="20:21" x14ac:dyDescent="0.2">
+      <c r="T49" s="22">
+        <v>39.833333333255723</v>
+      </c>
+      <c r="U49" s="22">
+        <v>20.563186666666667</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
